--- a/spliced/falling/2023-03-25_17-56-13/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-13/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>0.9949870109558104</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.5697603225708008</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2.878552436828613</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.078300476074219</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_17-56-13/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-56-13/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.515034198760986</v>
+        <v>-1.231432914733887</v>
       </c>
       <c r="B2" t="n">
-        <v>3.09714412689209</v>
+        <v>2.921578645706177</v>
       </c>
       <c r="C2" t="n">
-        <v>1.813430547714233</v>
+        <v>1.135899901390076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.8616123199462891</v>
+        <v>-1.530599117279053</v>
       </c>
       <c r="B3" t="n">
-        <v>2.827116727828979</v>
+        <v>3.089309453964233</v>
       </c>
       <c r="C3" t="n">
-        <v>2.906854152679444</v>
+        <v>1.274296164512634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.119331359863281</v>
+        <v>-1.078460693359375</v>
       </c>
       <c r="B4" t="n">
-        <v>2.938467741012573</v>
+        <v>3.193733692169189</v>
       </c>
       <c r="C4" t="n">
-        <v>3.788225650787354</v>
+        <v>1.281612634658814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.191555976867676</v>
+        <v>-0.9324893951416016</v>
       </c>
       <c r="B5" t="n">
-        <v>2.632256746292114</v>
+        <v>2.998547315597534</v>
       </c>
       <c r="C5" t="n">
-        <v>4.186654567718506</v>
+        <v>0.8108012080192566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.710879325866699</v>
+        <v>-1.057272911071777</v>
       </c>
       <c r="B6" t="n">
-        <v>1.845868825912476</v>
+        <v>2.989111185073853</v>
       </c>
       <c r="C6" t="n">
-        <v>3.84958028793335</v>
+        <v>0.8697453737258911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.593781471252441</v>
+        <v>-1.247255325317383</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9911742210388184</v>
+        <v>3.032690763473511</v>
       </c>
       <c r="C7" t="n">
-        <v>4.50331974029541</v>
+        <v>0.9775734543800354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-2.942704677581787</v>
+        <v>-1.120566368103027</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9004347324371338</v>
+        <v>3.040028095245361</v>
       </c>
       <c r="C8" t="n">
-        <v>5.645516872406006</v>
+        <v>0.9562293887138368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.870916843414306</v>
+        <v>-1.322433471679688</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8271392583847046</v>
+        <v>3.130712985992432</v>
       </c>
       <c r="C9" t="n">
-        <v>3.763989448547363</v>
+        <v>1.133776545524597</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-1.222605228424072</v>
+        <v>-1.53396463394165</v>
       </c>
       <c r="B10" t="n">
-        <v>8.015891075134277</v>
+        <v>3.08948278427124</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.287224769592285</v>
+        <v>1.223363161087036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21.32538223266602</v>
+        <v>-1.515034198760986</v>
       </c>
       <c r="B11" t="n">
-        <v>1.840011596679688</v>
+        <v>3.09714412689209</v>
       </c>
       <c r="C11" t="n">
-        <v>-17.43991279602051</v>
+        <v>1.813430547714233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-10.02466678619385</v>
+        <v>-0.8616123199462891</v>
       </c>
       <c r="B12" t="n">
-        <v>2.735576868057251</v>
+        <v>2.827116727828979</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7851346135139465</v>
+        <v>2.906854152679444</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.655090808868408</v>
+        <v>-1.119331359863281</v>
       </c>
       <c r="B13" t="n">
-        <v>4.018677711486816</v>
+        <v>2.938467741012573</v>
       </c>
       <c r="C13" t="n">
-        <v>1.793249011039734</v>
+        <v>3.788225650787354</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.92861557006836</v>
+        <v>-1.191555976867676</v>
       </c>
       <c r="B14" t="n">
-        <v>2.929328203201294</v>
+        <v>2.632256746292114</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0398081243038177</v>
+        <v>4.186654567718506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3450803756713867</v>
+        <v>-1.710879325866699</v>
       </c>
       <c r="B15" t="n">
-        <v>2.857911348342896</v>
+        <v>1.845868825912476</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8647096157073975</v>
+        <v>3.84958028793335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3354158401489258</v>
+        <v>-2.593781471252441</v>
       </c>
       <c r="B16" t="n">
-        <v>5.716526508331299</v>
+        <v>0.9911742210388184</v>
       </c>
       <c r="C16" t="n">
-        <v>2.590144395828247</v>
+        <v>4.50331974029541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.9065876007080078</v>
+        <v>-2.942704677581787</v>
       </c>
       <c r="B17" t="n">
-        <v>2.264821529388428</v>
+        <v>0.9004347324371338</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5376818180084229</v>
+        <v>5.645516872406006</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.116541862487793</v>
+        <v>-2.870916843414306</v>
       </c>
       <c r="B18" t="n">
-        <v>4.219213008880615</v>
+        <v>0.8271392583847046</v>
       </c>
       <c r="C18" t="n">
-        <v>2.760595798492432</v>
+        <v>3.763989448547363</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.9184532165527344</v>
+        <v>-1.222605228424072</v>
       </c>
       <c r="B19" t="n">
-        <v>2.742923021316528</v>
+        <v>8.015891075134277</v>
       </c>
       <c r="C19" t="n">
-        <v>0.531829297542572</v>
+        <v>-3.287224769592285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.7217302322387695</v>
+        <v>21.32538223266602</v>
       </c>
       <c r="B20" t="n">
-        <v>3.284558773040771</v>
+        <v>1.840011596679688</v>
       </c>
       <c r="C20" t="n">
-        <v>1.230929017066956</v>
+        <v>-17.43991279602051</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-10.02466678619385</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.735576868057251</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7851346135139465</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.655090808868408</v>
+      </c>
+      <c r="B22" t="n">
+        <v>4.018677711486816</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.793249011039734</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.92861557006836</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.929328203201294</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0398081243038177</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.3450803756713867</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.857911348342896</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.8647096157073975</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.3354158401489258</v>
+      </c>
+      <c r="B25" t="n">
+        <v>5.716526508331299</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.590144395828247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.9065876007080078</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.264821529388428</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5376818180084229</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.116541862487793</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4.219213008880615</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.760595798492432</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.9184532165527344</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.742923021316528</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.531829297542572</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.7217302322387695</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.284558773040771</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.230929017066956</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>-0.5133705139160156</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>3.467156171798706</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>0.9949870109558104</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.5697603225708008</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.878552436828613</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.078300476074219</v>
       </c>
     </row>
   </sheetData>
